--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/008_BorderStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/008_BorderStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="Ra3d65e32ed9a48af"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="Rc8170d83540e4df5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/008_BorderStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/008_BorderStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="Rc8170d83540e4df5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="Ra785108d17d247c7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/008_BorderStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/008_BorderStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="Ra785108d17d247c7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="Rac7e061779fd49be"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/008_BorderStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/008_BorderStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="Rac7e061779fd49be"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="Rbeb7fcbd91ac4a9c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/008_BorderStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/008_BorderStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="Rbeb7fcbd91ac4a9c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="Rca0e853919114e3f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/008_BorderStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/008_BorderStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="Rca0e853919114e3f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R0ab2d555d2c741af"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/008_BorderStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/008_BorderStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R0ab2d555d2c741af"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R160d599d9f384b04"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/008_BorderStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/008_BorderStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R160d599d9f384b04"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R87956ca8725248c8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/008_BorderStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/008_BorderStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R87956ca8725248c8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="Re94a58abad1d4cc3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/008_BorderStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/008_BorderStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="Re94a58abad1d4cc3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="Ra7a1f071791a4ae4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/008_BorderStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/008_BorderStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="Ra7a1f071791a4ae4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R0f3af3c8ff7d431c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -29,17 +29,17 @@
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="2">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/008_BorderStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/008_BorderStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="R0f3af3c8ff7d431c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="Re293b6aa4bdd411e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -29,17 +29,17 @@
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="2">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/008_BorderStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/008_BorderStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="Re293b6aa4bdd411e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BorderStyles" sheetId="1" r:id="Rd61dcb38dfc04e49"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
